--- a/list_all_continuous_indicators.xlsx
+++ b/list_all_continuous_indicators.xlsx
@@ -432,7 +432,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5760,7 +5760,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8977,7 +8977,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9770,7 +9770,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11826,7 +11826,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11981,7 +11981,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12521,7 +12521,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -13003,7 +13003,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -13093,7 +13093,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -13203,7 +13203,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -13394,7 +13394,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13669,7 +13669,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13714,7 +13714,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13759,7 +13759,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13849,7 +13849,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13894,7 +13894,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13944,7 +13944,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13994,7 +13994,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -14134,7 +14134,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -14224,7 +14224,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -14269,7 +14269,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -14314,7 +14314,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -14359,7 +14359,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -14454,7 +14454,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14549,7 +14549,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14649,7 +14649,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14700,7 +14700,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14835,7 +14835,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14880,7 +14880,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -15080,7 +15080,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -15125,7 +15125,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -15289,7 +15289,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -15401,7 +15401,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -15515,7 +15515,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15572,7 +15572,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15667,7 +15667,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15712,7 +15712,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15847,7 +15847,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -16127,7 +16127,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -16232,7 +16232,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -16277,7 +16277,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -16428,7 +16428,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16673,7 +16673,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16878,7 +16878,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -17088,7 +17088,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -17184,7 +17184,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -17274,7 +17274,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -17319,7 +17319,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -17525,7 +17525,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17665,7 +17665,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17710,7 +17710,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17755,7 +17755,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17850,7 +17850,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17895,7 +17895,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17950,7 +17950,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -18005,7 +18005,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -18060,7 +18060,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -18115,7 +18115,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -18160,7 +18160,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -18250,7 +18250,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -18305,7 +18305,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -18350,7 +18350,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -18445,7 +18445,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -18591,7 +18591,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18801,7 +18801,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18891,7 +18891,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -19031,7 +19031,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19671,7 +19671,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19721,7 +19721,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19821,7 +19821,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19921,7 +19921,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -20031,7 +20031,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -20086,7 +20086,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -20141,7 +20141,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -20196,7 +20196,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -20251,7 +20251,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -20301,7 +20301,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -20346,7 +20346,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -20391,7 +20391,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -20436,7 +20436,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -20481,7 +20481,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20681,7 +20681,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20921,7 +20921,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20971,7 +20971,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -21061,7 +21061,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -21106,7 +21106,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -21151,7 +21151,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -21408,7 +21408,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -21458,7 +21458,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21793,7 +21793,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21848,7 +21848,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21903,7 +21903,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21958,7 +21958,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -22003,7 +22003,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -22048,7 +22048,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -22098,7 +22098,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -22149,7 +22149,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -22199,7 +22199,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -22289,7 +22289,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -22389,7 +22389,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -22439,7 +22439,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -22689,7 +22689,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22739,7 +22739,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22834,7 +22834,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22889,7 +22889,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22944,7 +22944,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22999,7 +22999,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -23054,7 +23054,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -23250,7 +23250,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -23300,7 +23300,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -23495,7 +23495,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -23550,7 +23550,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -23605,7 +23605,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -23660,7 +23660,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -23715,7 +23715,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -23770,7 +23770,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23825,7 +23825,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23880,7 +23880,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23935,7 +23935,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23990,7 +23990,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -24035,7 +24035,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -24190,7 +24190,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -24240,7 +24240,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -24285,7 +24285,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -24330,7 +24330,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -24441,7 +24441,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -24486,7 +24486,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -24536,7 +24536,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -24641,7 +24641,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -24751,7 +24751,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -24806,7 +24806,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -24861,7 +24861,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24951,7 +24951,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24996,7 +24996,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -25096,7 +25096,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -25151,7 +25151,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -25206,7 +25206,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -25301,7 +25301,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -25352,7 +25352,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -25402,7 +25402,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -25447,7 +25447,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -25537,7 +25537,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -25582,7 +25582,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -25627,7 +25627,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -25672,7 +25672,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -25729,7 +25729,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -25841,7 +25841,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -25886,7 +25886,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -25981,7 +25981,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -26037,7 +26037,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -26093,7 +26093,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -26149,7 +26149,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -26261,7 +26261,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -26317,7 +26317,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -26373,7 +26373,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -26429,7 +26429,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -26485,7 +26485,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -26597,7 +26597,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -26743,7 +26743,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -26844,7 +26844,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -26900,7 +26900,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -27090,7 +27090,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -27145,7 +27145,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -27200,7 +27200,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -27255,7 +27255,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -27355,7 +27355,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -27456,7 +27456,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -27506,7 +27506,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -27563,7 +27563,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -27620,7 +27620,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -27665,7 +27665,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -27710,7 +27710,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -27755,7 +27755,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -27800,7 +27800,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -27850,7 +27850,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -27900,7 +27900,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -27955,7 +27955,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -28012,7 +28012,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -28069,7 +28069,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -28126,7 +28126,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -28183,7 +28183,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -28273,7 +28273,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -28318,7 +28318,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -28363,7 +28363,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -28408,7 +28408,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -28453,7 +28453,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -28498,7 +28498,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -28543,7 +28543,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -28588,7 +28588,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -28633,7 +28633,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -28683,7 +28683,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -28733,7 +28733,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -28778,7 +28778,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -28823,7 +28823,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -28868,7 +28868,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -28913,7 +28913,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -28963,7 +28963,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -29018,7 +29018,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -29073,7 +29073,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -29183,7 +29183,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -29228,7 +29228,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -29273,7 +29273,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -29328,7 +29328,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -29383,7 +29383,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -29428,7 +29428,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -29478,7 +29478,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -29529,7 +29529,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -29574,7 +29574,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -29669,7 +29669,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -29720,7 +29720,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -29780,7 +29780,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -29840,7 +29840,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -29900,7 +29900,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -29960,7 +29960,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -30020,7 +30020,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -30080,7 +30080,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -30140,7 +30140,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -30200,7 +30200,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -30260,7 +30260,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -30320,7 +30320,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -30380,7 +30380,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -30500,7 +30500,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -30560,7 +30560,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -30620,7 +30620,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -30680,7 +30680,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -30740,7 +30740,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -31150,7 +31150,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -31245,7 +31245,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -31295,7 +31295,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -31345,7 +31345,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -31445,7 +31445,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -31490,7 +31490,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -31540,7 +31540,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -31645,7 +31645,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -31695,7 +31695,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -31745,7 +31745,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -31795,7 +31795,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -31846,7 +31846,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -31891,7 +31891,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -31946,7 +31946,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -32001,7 +32001,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -32056,7 +32056,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -32116,7 +32116,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -32162,7 +32162,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -32258,7 +32258,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -32808,7 +32808,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -32963,7 +32963,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -33013,7 +33013,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>regular, several popualtions, or unspecified</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -33064,7 +33064,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>high risk</t>
+          <t>mixed or unspecified population</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
